--- a/Expr1d/Expr_9.xlsx
+++ b/Expr1d/Expr_9.xlsx
@@ -1,177 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E1E08-E7C8-B242-9FEE-69F52571380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="2720" windowWidth="28800" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8120" yWindow="2720" windowWidth="28800" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SET" sheetId="1" r:id="rId1"/>
-    <sheet name="Subnet1" sheetId="2" r:id="rId2"/>
-    <sheet name="LossRecord" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SET" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subnet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LossRecord" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>SEED</t>
-  </si>
-  <si>
-    <t>Train_Dataset</t>
-  </si>
-  <si>
-    <t>Valid_Dataset</t>
-  </si>
-  <si>
-    <t>Test_Dataset</t>
-  </si>
-  <si>
-    <t>Save_Path</t>
-  </si>
-  <si>
-    <t>Batch_size</t>
-  </si>
-  <si>
-    <t>Epoch</t>
-  </si>
-  <si>
-    <t>Sub_number</t>
-  </si>
-  <si>
-    <t>Scale_Coeff</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Con_record</t>
-  </si>
-  <si>
-    <t>mscalenn2</t>
-  </si>
-  <si>
-    <t>data/freq_1d/mu_70/train_loader.pt</t>
-  </si>
-  <si>
-    <t>data/freq_1d/mu_70/val_loader.pt</t>
-  </si>
-  <si>
-    <t>data/freq_1d/mu_70/test_loader.pt</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>0,2000,5000</t>
-  </si>
-  <si>
-    <t>Layer_Set</t>
-  </si>
-  <si>
-    <t>Act_Set</t>
-  </si>
-  <si>
-    <t>Ini_Set</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>1,150,150,150,1</t>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>xavier_uniform</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>train_loss</t>
-  </si>
-  <si>
-    <t>valid_loss</t>
-  </si>
-  <si>
-    <t>test_loss</t>
-  </si>
-  <si>
-    <t>Result/Expr1_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,31 +90,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -226,16 +131,75 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -544,171 +512,700 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="27" style="2" customWidth="1"/>
+    <col width="16.83203125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="27" customWidth="1" style="2" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>SEED</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Train_Dataset</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Valid_Dataset</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Test_Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Save_Path</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Batch_size</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Sub_number</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Scale_Coeff</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Con_record</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>mscalenn2</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C2">
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>data/freq_1d/mu_70/train_loader.pt</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>data/freq_1d/mu_70/val_loader.pt</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>data/freq_1d/mu_70/test_loader.pt</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Result/Expr1_9</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>5200</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>256</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5200</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="M3" s="5"/>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>0,2000,5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="M3" s="5" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="b">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Layer_Set</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Act_Set</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Ini_Set</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1,150,150,150,1</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>phi,phi,phi</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>xavier_uniform</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>train_loss</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>valid_loss</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>test_loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2225030926721437</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2004112116992474</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1977076902985573</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1066427337271827</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1037932224571705</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1039684861898422</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>200</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08028671464749745</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.08056895434856415</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07219617441296577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>300</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07298875946019377</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.07542477548122406</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06504113413393497</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>400</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06650556091751371</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06849686242640018</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0613919273018837</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>500</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.06024936852710588</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0612171059474349</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05295581370592117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>600</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.05885414380048003</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05785842798650265</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05064073577523232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>700</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.05592655896076134</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05546045117080212</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04757978394627571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>800</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05186833893614156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04963177815079689</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.04341965541243553</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>900</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04650135604398591</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04274268355220556</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0386069118976593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04361607480262007</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04290021397173405</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03839300759136677</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.04124620357262237</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03541046660393476</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03372945822775364</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0389933634017195</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03374881576746702</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03233835007995367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04068502650729248</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03605121513828635</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03471681196242571</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.03761660879743951</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03234828030690551</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03103811293840408</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03797530941665173</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.03566476982086897</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03288035281002522</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.03808922786265612</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03180053876712918</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.031342389062047</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03579558032963957</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.03068659920245409</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.02993162348866463</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03544778137334755</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02915852284058928</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03154249675571918</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.02988884278706142</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02421194221824408</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02315918449312449</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.02959848594452654</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02408372377976775</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0224622804671526</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.02841170983655112</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02365104947239161</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02462139166891575</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0274619891175202</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02199378842487931</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02105279825627804</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.02808981575071812</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02507372852414846</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02569109573960304</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02580008895269462</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02110275067389011</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01856148615479469</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.02469853657696928</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01956031378358603</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01955976244062185</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.02445118581610067</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02021727478131652</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.02075838111341</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.02355139742472342</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01837742701172829</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01848107762634754</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.02315483455147062</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01765775610692799</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01788921654224396</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.02228835131973028</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01831037271767855</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01652517076581717</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.02252641213791711</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01728403544984758</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01861884444952011</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3100</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.02060485711055143</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01775235775858164</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.02025650721043348</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3200</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.02230695834649461</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01577466307207942</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01611126121133566</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Expr1d/Expr_9.xlsx
+++ b/Expr1d/Expr_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E1E08-E7C8-B242-9FEE-69F52571380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD30F3A-C5DE-1D47-9599-B783FBD5C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="2720" windowWidth="28800" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="2720" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Model</t>
   </si>
@@ -116,6 +116,9 @@
   <si>
     <t>Result/Expr1_9</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fig_Record_Interve</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +162,13 @@
       <b/>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
     </font>
@@ -203,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +230,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -548,7 +561,7 @@
     <col min="11" max="11" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +601,11 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -629,8 +645,11 @@
       <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="N2" s="7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="M3" s="5"/>
     </row>
   </sheetData>
@@ -643,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
